--- a/server/tmp/admin2018-1-1.xlsx
+++ b/server/tmp/admin2018-1-1.xlsx
@@ -19,6 +19,12 @@
     <t>装机单——测试装机</t>
   </si>
   <si>
+    <t>ID:admin</t>
+  </si>
+  <si>
+    <t>2018-1-1</t>
+  </si>
+  <si>
     <t>部件</t>
   </si>
   <si>
@@ -58,7 +64,7 @@
     <t>总计</t>
   </si>
   <si>
-    <t>ID:admin  2018-1-1  power by diydesktop</t>
+    <t>power by diydesktop</t>
   </si>
 </sst>
 </file>
@@ -68,10 +74,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="¥#,##0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Verdana"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Verdana"/>
+      <b/>
     </font>
   </fonts>
   <fills count="6">
@@ -157,11 +178,11 @@
       </bottom>
     </border>
   </borders>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="0" numFmtId="0">
@@ -170,22 +191,31 @@
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="2" fontId="2" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="4" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="3" numFmtId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="4" fontId="3" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="0" numFmtId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="2" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="5" fontId="0" numFmtId="164">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="5" fontId="2" numFmtId="164">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="164">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="3" fontId="3" numFmtId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="3" numFmtId="164">
+      <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -537,126 +567,130 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2"/>
-      <c r="C1" t="s" s="2"/>
-      <c r="D1" t="s" s="2"/>
-      <c r="E1" t="s" s="3"/>
+      <c r="C1" t="s" s="3"/>
+      <c r="D1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A3" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="E3" s="9">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A4" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A5" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A3" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="E5" s="9">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A6" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A4" t="s" s="5">
+      <c r="E6" s="9">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="22.677165360000004" outlineLevel="0">
+      <c r="A7" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C7" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A5" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A6" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A7" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>299</v>
       </c>
     </row>
     <row r="8" customHeight="1" ht="28.3464567" outlineLevel="0">
-      <c r="A8" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="2"/>
+      <c r="C8" t="s" s="3"/>
+      <c r="D8" s="11">
         <v>2976</v>
       </c>
-      <c r="C8" t="s" s="2"/>
-      <c r="D8" t="s" s="2"/>
       <c r="E8" t="s" s="3"/>
     </row>
     <row r="9" customHeight="1" ht="17.00787402" outlineLevel="0">
-      <c r="A9" t="s" s="1">
-        <v>14</v>
+      <c r="A9" t="s" s="12">
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2"/>
       <c r="C9" t="s" s="2"/>
@@ -664,9 +698,10 @@
       <c r="E9" t="s" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B8:E8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A9:E9"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
